--- a/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -36,7 +36,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -46,13 +46,6 @@
     </x:font>
     <x:font>
       <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -155,7 +155,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -438,7 +438,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -63,7 +63,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF00FFFF"/>
-        <x:bgColor rgb="FF00FFFF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -477,7 +477,7 @@
       <x:c r="B4" s="5" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:sheetProtection sheet="1" formatCells="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
+  <x:sheetProtection sheet="1" objects="1" scenarios="0" formatCells="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -497,7 +497,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData/>
-  <x:sheetProtection password="CF7A" sheet="1" insertColumns="0" insertRows="0"/>
+  <x:sheetProtection password="CF7A" sheet="1" objects="1" insertColumns="0" insertRows="0"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -448,7 +448,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="26.970625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="21.790625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
